--- a/users.xlsx
+++ b/users.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,13 +37,17 @@
   </si>
   <si>
     <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,74 +93,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -169,14 +105,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -244,6 +180,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,6 +232,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -510,6 +480,17 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>55555555</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
